--- a/biology/Zoologie/Deliochus_pulcher/Deliochus_pulcher.xlsx
+++ b/biology/Zoologie/Deliochus_pulcher/Deliochus_pulcher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deliochus pulcher est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deliochus pulcher est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre vers Gordonvale (en).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre vers Gordonvale (en).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,1 mm de long sur 1,5 mm et l'abdomen 3,5 mm de long sur 2,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,1 mm de long sur 1,5 mm et l'abdomen 3,5 mm de long sur 2,3 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 04/09/2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 04/09/2023) :
 Deliochus pulcher melanius Rainbow, 1916
 Deliochus pulcher pulcher Rainbow, 1916</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Rainbow en 1916.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Rainbow, 1916 : « Arachnida from northern Queensland. Part I. » Records of the Australian Museum, vol. 11, p. 33-64 (texte intégral).</t>
         </is>
